--- a/data/analysis/social_media_analytics/pivot_tables/country-size/museum_activity_groups__var2-country-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country-size/museum_activity_groups__var2-country-size.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -455,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -493,111 +496,165 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="E4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -609,16 +666,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -627,16 +684,16 @@
         <v>25</v>
       </c>
       <c r="O4">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -648,37 +705,76 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <v>4</v>
       </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB4">
         <v>-1.2</v>
       </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>-1.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="D5">
-        <v>183.3</v>
+        <v>133.3</v>
       </c>
       <c r="E5">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -693,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
       <c r="L5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -711,13 +807,13 @@
         <v>-1.8</v>
       </c>
       <c r="P5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="Q5">
-        <v>68.8</v>
+        <v>49.7</v>
       </c>
       <c r="R5">
-        <v>206.3</v>
+        <v>149</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -732,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="X5">
         <v>9</v>
       </c>
       <c r="Y5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -747,22 +843,61 @@
         <v>11.1</v>
       </c>
       <c r="AB5">
+        <v>-1.8</v>
+      </c>
+      <c r="AC5">
+        <v>619</v>
+      </c>
+      <c r="AD5">
+        <v>68.8</v>
+      </c>
+      <c r="AE5">
+        <v>206.3</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>619</v>
+      </c>
+      <c r="AK5">
+        <v>9</v>
+      </c>
+      <c r="AL5">
+        <v>619</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>11.1</v>
+      </c>
+      <c r="AO5">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D6">
-        <v>54.8</v>
+        <v>46.5</v>
       </c>
       <c r="E6">
-        <v>109.5</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -774,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>54.8</v>
+        <v>46.5</v>
       </c>
       <c r="J6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -792,16 +927,16 @@
         <v>25</v>
       </c>
       <c r="O6">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -813,37 +948,76 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
+      <c r="Y6">
+        <v>33</v>
+      </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB6">
         <v>-1.2</v>
       </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>-1.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>38.6</v>
+        <v>31.7</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -858,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>7</v>
       </c>
       <c r="L7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -873,16 +1047,16 @@
         <v>14.3</v>
       </c>
       <c r="O7">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="P7">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="Q7">
-        <v>31.9</v>
+        <v>2.3</v>
       </c>
       <c r="R7">
-        <v>84.3</v>
+        <v>6</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -897,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="X7">
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -912,231 +1086,348 @@
         <v>14.3</v>
       </c>
       <c r="AB7">
+        <v>-1.6</v>
+      </c>
+      <c r="AC7">
+        <v>223</v>
+      </c>
+      <c r="AD7">
+        <v>31.9</v>
+      </c>
+      <c r="AE7">
+        <v>84.3</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>223</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>223</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>14.3</v>
+      </c>
+      <c r="AO7">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>102565</v>
+        <v>31393</v>
       </c>
       <c r="D8">
-        <v>10256.5</v>
+        <v>3139.3</v>
       </c>
       <c r="E8">
-        <v>7972.5</v>
+        <v>3334.9</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5734.8</v>
+        <v>375</v>
       </c>
       <c r="H8">
-        <v>9856</v>
+        <v>2555.5</v>
       </c>
       <c r="I8">
-        <v>13079.8</v>
+        <v>4353.8</v>
       </c>
       <c r="J8">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
       <c r="L8">
-        <v>11396.1</v>
+        <v>4484.7</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O8">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P8">
-        <v>10253</v>
+        <v>56883</v>
       </c>
       <c r="Q8">
-        <v>1025.3</v>
+        <v>5688.3</v>
       </c>
       <c r="R8">
-        <v>995.4</v>
+        <v>5945.6</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>72.8</v>
+        <v>687.8</v>
       </c>
       <c r="U8">
-        <v>992</v>
+        <v>4321</v>
       </c>
       <c r="V8">
-        <v>1514.5</v>
+        <v>7609.8</v>
       </c>
       <c r="W8">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="X8">
         <v>10</v>
       </c>
       <c r="Y8">
+        <v>7110.4</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>80</v>
+      </c>
+      <c r="AB8">
+        <v>1.2</v>
+      </c>
+      <c r="AC8">
+        <v>10253</v>
+      </c>
+      <c r="AD8">
+        <v>1025.3</v>
+      </c>
+      <c r="AE8">
+        <v>995.4</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>72.8</v>
+      </c>
+      <c r="AH8">
+        <v>992</v>
+      </c>
+      <c r="AI8">
+        <v>1514.5</v>
+      </c>
+      <c r="AJ8">
+        <v>2991</v>
+      </c>
+      <c r="AK8">
+        <v>10</v>
+      </c>
+      <c r="AL8">
         <v>1464.7</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>7</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>70</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>1021536</v>
+        <v>644736</v>
       </c>
       <c r="D9">
-        <v>2485.5</v>
+        <v>1568.7</v>
       </c>
       <c r="E9">
-        <v>4099.9</v>
+        <v>2470.9</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>356</v>
+        <v>203.5</v>
       </c>
       <c r="H9">
-        <v>1140</v>
+        <v>853</v>
       </c>
       <c r="I9">
-        <v>2771.5</v>
+        <v>1982</v>
       </c>
       <c r="J9">
-        <v>31042</v>
+        <v>19900</v>
       </c>
       <c r="K9">
         <v>411</v>
       </c>
       <c r="L9">
-        <v>2902.1</v>
+        <v>1913.2</v>
       </c>
       <c r="M9">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="N9">
-        <v>85.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="P9">
-        <v>225438</v>
+        <v>292654</v>
       </c>
       <c r="Q9">
-        <v>548.5</v>
+        <v>712.1</v>
       </c>
       <c r="R9">
-        <v>589.7</v>
+        <v>1828.1</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U9">
-        <v>450</v>
+        <v>224</v>
       </c>
       <c r="V9">
-        <v>842</v>
+        <v>651.5</v>
       </c>
       <c r="W9">
-        <v>4241</v>
+        <v>20111</v>
       </c>
       <c r="X9">
         <v>411</v>
       </c>
       <c r="Y9">
+        <v>845.8</v>
+      </c>
+      <c r="Z9">
+        <v>346</v>
+      </c>
+      <c r="AA9">
+        <v>84.2</v>
+      </c>
+      <c r="AB9">
+        <v>1.4</v>
+      </c>
+      <c r="AC9">
+        <v>225438</v>
+      </c>
+      <c r="AD9">
+        <v>548.5</v>
+      </c>
+      <c r="AE9">
+        <v>589.7</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>450</v>
+      </c>
+      <c r="AI9">
+        <v>842</v>
+      </c>
+      <c r="AJ9">
+        <v>4241</v>
+      </c>
+      <c r="AK9">
+        <v>411</v>
+      </c>
+      <c r="AL9">
         <v>822.8</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>274</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>66.7</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>1105497</v>
+        <v>560822</v>
       </c>
       <c r="D10">
-        <v>1630.5</v>
+        <v>827.2</v>
       </c>
       <c r="E10">
-        <v>4275</v>
+        <v>2162</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>377</v>
+        <v>219.5</v>
       </c>
       <c r="I10">
-        <v>1558.5</v>
+        <v>1003.8</v>
       </c>
       <c r="J10">
-        <v>60386</v>
+        <v>43003</v>
       </c>
       <c r="K10">
         <v>678</v>
       </c>
       <c r="L10">
-        <v>2117.8</v>
+        <v>1178.2</v>
       </c>
       <c r="M10">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="N10">
-        <v>77</v>
+        <v>70.2</v>
       </c>
       <c r="O10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P10">
-        <v>301554</v>
+        <v>185834</v>
       </c>
       <c r="Q10">
-        <v>444.8</v>
+        <v>274.1</v>
       </c>
       <c r="R10">
-        <v>1591.2</v>
+        <v>1879.2</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1145,43 +1436,82 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V10">
-        <v>588.5</v>
+        <v>180.8</v>
       </c>
       <c r="W10">
-        <v>36948</v>
+        <v>46992</v>
       </c>
       <c r="X10">
         <v>678</v>
       </c>
       <c r="Y10">
+        <v>381.6</v>
+      </c>
+      <c r="Z10">
+        <v>487</v>
+      </c>
+      <c r="AA10">
+        <v>71.8</v>
+      </c>
+      <c r="AB10">
+        <v>0.8</v>
+      </c>
+      <c r="AC10">
+        <v>301554</v>
+      </c>
+      <c r="AD10">
+        <v>444.8</v>
+      </c>
+      <c r="AE10">
+        <v>1591.2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>588.5</v>
+      </c>
+      <c r="AJ10">
+        <v>36948</v>
+      </c>
+      <c r="AK10">
+        <v>678</v>
+      </c>
+      <c r="AL10">
         <v>985.5</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>306</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>45.1</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>1782455</v>
+        <v>606809</v>
       </c>
       <c r="D11">
-        <v>1348.3</v>
+        <v>459</v>
       </c>
       <c r="E11">
-        <v>4638</v>
+        <v>1082.3</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1190,37 +1520,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>713.2</v>
+        <v>425.2</v>
       </c>
       <c r="J11">
-        <v>72982</v>
+        <v>14101</v>
       </c>
       <c r="K11">
         <v>1322</v>
       </c>
       <c r="L11">
-        <v>2222.5</v>
+        <v>846.3</v>
       </c>
       <c r="M11">
-        <v>802</v>
+        <v>717</v>
       </c>
       <c r="N11">
-        <v>60.7</v>
+        <v>54.2</v>
       </c>
       <c r="O11">
         <v>0.1</v>
       </c>
       <c r="P11">
-        <v>279404</v>
+        <v>199101</v>
       </c>
       <c r="Q11">
-        <v>211.3</v>
+        <v>150.6</v>
       </c>
       <c r="R11">
-        <v>816.5</v>
+        <v>631.1</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1229,43 +1559,82 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>19.2</v>
+        <v>63</v>
       </c>
       <c r="W11">
-        <v>21892</v>
+        <v>11227</v>
       </c>
       <c r="X11">
         <v>1322</v>
       </c>
       <c r="Y11">
+        <v>275</v>
+      </c>
+      <c r="Z11">
+        <v>724</v>
+      </c>
+      <c r="AA11">
+        <v>54.8</v>
+      </c>
+      <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11">
+        <v>279404</v>
+      </c>
+      <c r="AD11">
+        <v>211.3</v>
+      </c>
+      <c r="AE11">
+        <v>816.5</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>19.2</v>
+      </c>
+      <c r="AJ11">
+        <v>21892</v>
+      </c>
+      <c r="AK11">
+        <v>1322</v>
+      </c>
+      <c r="AL11">
         <v>831.6</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>336</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>25.4</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>200031</v>
+        <v>43040</v>
       </c>
       <c r="D12">
-        <v>2381.3</v>
+        <v>512.4</v>
       </c>
       <c r="E12">
-        <v>9647.1</v>
+        <v>1065.4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1274,37 +1643,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>1138.2</v>
+        <v>692</v>
       </c>
       <c r="J12">
-        <v>74441</v>
+        <v>7613</v>
       </c>
       <c r="K12">
         <v>84</v>
       </c>
       <c r="L12">
-        <v>3922.2</v>
+        <v>915.7</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N12">
-        <v>60.7</v>
+        <v>56</v>
       </c>
       <c r="O12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P12">
-        <v>55983</v>
+        <v>13856</v>
       </c>
       <c r="Q12">
-        <v>666.5</v>
+        <v>165</v>
       </c>
       <c r="R12">
-        <v>2526.5</v>
+        <v>500.5</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1313,63 +1682,102 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>282.5</v>
+        <v>105</v>
       </c>
       <c r="W12">
-        <v>20246</v>
+        <v>3807</v>
       </c>
       <c r="X12">
         <v>84</v>
       </c>
       <c r="Y12">
+        <v>307.9</v>
+      </c>
+      <c r="Z12">
+        <v>45</v>
+      </c>
+      <c r="AA12">
+        <v>53.6</v>
+      </c>
+      <c r="AB12">
+        <v>0.1</v>
+      </c>
+      <c r="AC12">
+        <v>55983</v>
+      </c>
+      <c r="AD12">
+        <v>666.5</v>
+      </c>
+      <c r="AE12">
+        <v>2526.5</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>282.5</v>
+      </c>
+      <c r="AJ12">
+        <v>20246</v>
+      </c>
+      <c r="AK12">
+        <v>84</v>
+      </c>
+      <c r="AL12">
         <v>2239.3</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>25</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>29.8</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="D13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="F13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="G13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="H13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="I13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="J13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1378,55 +1786,91 @@
         <v>100</v>
       </c>
       <c r="O13">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
+      <c r="Y13">
+        <v>411</v>
+      </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>28.5</v>
+        <v>24.5</v>
       </c>
       <c r="E14">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1438,16 +1882,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.5</v>
+        <v>24.5</v>
       </c>
       <c r="J14">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1456,16 +1900,16 @@
         <v>25</v>
       </c>
       <c r="O14">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1477,37 +1921,76 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X14">
         <v>4</v>
       </c>
+      <c r="Y14">
+        <v>16</v>
+      </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB14">
         <v>-1.2</v>
       </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>4</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>-1.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1519,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1537,16 +2020,16 @@
         <v>33.3</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1558,37 +2041,76 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>3</v>
       </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AB15">
+        <v>-0.8</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>70817</v>
+        <v>49204</v>
       </c>
       <c r="D16">
-        <v>10116.7</v>
+        <v>7029.1</v>
       </c>
       <c r="E16">
-        <v>25877.1</v>
+        <v>17887.6</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1600,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="J16">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K16">
         <v>7</v>
       </c>
       <c r="L16">
-        <v>35408.5</v>
+        <v>24602</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -1618,16 +2140,16 @@
         <v>28.6</v>
       </c>
       <c r="O16">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="P16">
-        <v>675</v>
+        <v>21295</v>
       </c>
       <c r="Q16">
-        <v>96.40000000000001</v>
+        <v>3042.1</v>
       </c>
       <c r="R16">
-        <v>255.1</v>
+        <v>7869</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1639,63 +2161,102 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>205.5</v>
       </c>
       <c r="W16">
-        <v>675</v>
+        <v>20884</v>
       </c>
       <c r="X16">
         <v>7</v>
       </c>
       <c r="Y16">
+        <v>10647.5</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>28.6</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>675</v>
       </c>
-      <c r="Z16">
+      <c r="AD16">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="AE16">
+        <v>255.1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>675</v>
+      </c>
+      <c r="AK16">
+        <v>7</v>
+      </c>
+      <c r="AL16">
+        <v>675</v>
+      </c>
+      <c r="AM16">
         <v>1</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>14.3</v>
       </c>
-      <c r="AB16">
+      <c r="AO16">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>8333</v>
+        <v>5968</v>
       </c>
       <c r="D17">
-        <v>1190.4</v>
+        <v>852.6</v>
       </c>
       <c r="E17">
-        <v>898.8</v>
+        <v>564.6</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>666</v>
+        <v>566.5</v>
       </c>
       <c r="H17">
-        <v>1073</v>
+        <v>874</v>
       </c>
       <c r="I17">
-        <v>1686</v>
+        <v>1096</v>
       </c>
       <c r="J17">
-        <v>2556</v>
+        <v>1769</v>
       </c>
       <c r="K17">
         <v>7</v>
       </c>
       <c r="L17">
-        <v>1388.8</v>
+        <v>994.7</v>
       </c>
       <c r="M17">
         <v>6</v>
@@ -1704,37 +2265,37 @@
         <v>85.7</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P17">
-        <v>4692</v>
+        <v>2354</v>
       </c>
       <c r="Q17">
-        <v>670.3</v>
+        <v>336.3</v>
       </c>
       <c r="R17">
-        <v>396.1</v>
+        <v>363.1</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>519</v>
+        <v>96</v>
       </c>
       <c r="U17">
-        <v>736</v>
+        <v>199</v>
       </c>
       <c r="V17">
-        <v>813</v>
+        <v>524</v>
       </c>
       <c r="W17">
-        <v>1292</v>
+        <v>915</v>
       </c>
       <c r="X17">
         <v>7</v>
       </c>
       <c r="Y17">
-        <v>782</v>
+        <v>392.3</v>
       </c>
       <c r="Z17">
         <v>6</v>
@@ -1743,22 +2304,61 @@
         <v>85.7</v>
       </c>
       <c r="AB17">
+        <v>1.4</v>
+      </c>
+      <c r="AC17">
+        <v>4692</v>
+      </c>
+      <c r="AD17">
+        <v>670.3</v>
+      </c>
+      <c r="AE17">
+        <v>396.1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>519</v>
+      </c>
+      <c r="AH17">
+        <v>736</v>
+      </c>
+      <c r="AI17">
+        <v>813</v>
+      </c>
+      <c r="AJ17">
+        <v>1292</v>
+      </c>
+      <c r="AK17">
+        <v>7</v>
+      </c>
+      <c r="AL17">
+        <v>782</v>
+      </c>
+      <c r="AM17">
+        <v>6</v>
+      </c>
+      <c r="AN17">
+        <v>85.7</v>
+      </c>
+      <c r="AO17">
         <v>1.9</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>61369</v>
+        <v>18917</v>
       </c>
       <c r="D18">
-        <v>3068.4</v>
+        <v>945.8</v>
       </c>
       <c r="E18">
-        <v>6311.6</v>
+        <v>3297.5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1767,37 +2367,37 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1969.8</v>
+        <v>448</v>
       </c>
       <c r="J18">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="K18">
         <v>20</v>
       </c>
       <c r="L18">
-        <v>4720.7</v>
+        <v>2101.9</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N18">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O18">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P18">
-        <v>14717</v>
+        <v>11195</v>
       </c>
       <c r="Q18">
-        <v>735.8</v>
+        <v>559.8</v>
       </c>
       <c r="R18">
-        <v>1863.3</v>
+        <v>2322.5</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1809,40 +2409,79 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>458.2</v>
+        <v>58.8</v>
       </c>
       <c r="W18">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X18">
         <v>20</v>
       </c>
       <c r="Y18">
+        <v>1243.9</v>
+      </c>
+      <c r="Z18">
+        <v>9</v>
+      </c>
+      <c r="AA18">
+        <v>45</v>
+      </c>
+      <c r="AB18">
+        <v>-0.3</v>
+      </c>
+      <c r="AC18">
+        <v>14717</v>
+      </c>
+      <c r="AD18">
+        <v>735.8</v>
+      </c>
+      <c r="AE18">
+        <v>1863.3</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>458.2</v>
+      </c>
+      <c r="AJ18">
+        <v>6887</v>
+      </c>
+      <c r="AK18">
+        <v>20</v>
+      </c>
+      <c r="AL18">
         <v>2102.4</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>7</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>35</v>
       </c>
-      <c r="AB18">
+      <c r="AO18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>73829</v>
+        <v>15544</v>
       </c>
       <c r="D19">
-        <v>1295.2</v>
+        <v>272.7</v>
       </c>
       <c r="E19">
-        <v>4383.8</v>
+        <v>769.7</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1854,34 +2493,34 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="J19">
-        <v>24940</v>
+        <v>4946</v>
       </c>
       <c r="K19">
         <v>57</v>
       </c>
       <c r="L19">
-        <v>2636.8</v>
+        <v>647.7</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N19">
-        <v>49.1</v>
+        <v>42.1</v>
       </c>
       <c r="O19">
         <v>-0.4</v>
       </c>
       <c r="P19">
-        <v>15200</v>
+        <v>2546</v>
       </c>
       <c r="Q19">
-        <v>266.7</v>
+        <v>44.7</v>
       </c>
       <c r="R19">
-        <v>975</v>
+        <v>103.6</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1893,79 +2532,118 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="W19">
-        <v>6887</v>
+        <v>428</v>
       </c>
       <c r="X19">
         <v>57</v>
       </c>
       <c r="Y19">
-        <v>1266.7</v>
+        <v>110.7</v>
       </c>
       <c r="Z19">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA19">
-        <v>21.1</v>
+        <v>40.4</v>
       </c>
       <c r="AB19">
         <v>-0.5</v>
       </c>
+      <c r="AC19">
+        <v>15200</v>
+      </c>
+      <c r="AD19">
+        <v>266.7</v>
+      </c>
+      <c r="AE19">
+        <v>975</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>6887</v>
+      </c>
+      <c r="AK19">
+        <v>57</v>
+      </c>
+      <c r="AL19">
+        <v>1266.7</v>
+      </c>
+      <c r="AM19">
+        <v>12</v>
+      </c>
+      <c r="AN19">
+        <v>21.1</v>
+      </c>
+      <c r="AO19">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>38135</v>
+        <v>11337</v>
       </c>
       <c r="D20">
-        <v>3813.5</v>
+        <v>1133.7</v>
       </c>
       <c r="E20">
-        <v>6953.3</v>
+        <v>1795.9</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>138.8</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1390</v>
+        <v>218.5</v>
       </c>
       <c r="I20">
-        <v>3054.2</v>
+        <v>1752</v>
       </c>
       <c r="J20">
-        <v>22835</v>
+        <v>5535</v>
       </c>
       <c r="K20">
         <v>10</v>
       </c>
       <c r="L20">
-        <v>4766.9</v>
+        <v>1889.5</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N20">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O20">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P20">
-        <v>12079</v>
+        <v>2061</v>
       </c>
       <c r="Q20">
-        <v>1207.9</v>
+        <v>206.1</v>
       </c>
       <c r="R20">
-        <v>2323.9</v>
+        <v>291.2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1974,150 +2652,228 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>546</v>
+        <v>42</v>
       </c>
       <c r="V20">
-        <v>1061.2</v>
+        <v>428</v>
       </c>
       <c r="W20">
-        <v>7664</v>
+        <v>692</v>
       </c>
       <c r="X20">
         <v>10</v>
       </c>
       <c r="Y20">
+        <v>412.2</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>50</v>
+      </c>
+      <c r="AB20">
+        <v>-0.1</v>
+      </c>
+      <c r="AC20">
+        <v>12079</v>
+      </c>
+      <c r="AD20">
+        <v>1207.9</v>
+      </c>
+      <c r="AE20">
+        <v>2323.9</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>546</v>
+      </c>
+      <c r="AI20">
+        <v>1061.2</v>
+      </c>
+      <c r="AJ20">
+        <v>7664</v>
+      </c>
+      <c r="AK20">
+        <v>10</v>
+      </c>
+      <c r="AL20">
         <v>2013.2</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>6</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>60</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>8528</v>
+        <v>1171</v>
       </c>
       <c r="D21">
-        <v>4264</v>
+        <v>585.5</v>
       </c>
       <c r="E21">
-        <v>3163.6</v>
+        <v>828</v>
       </c>
       <c r="F21">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>3145.5</v>
+        <v>292.8</v>
       </c>
       <c r="H21">
-        <v>4264</v>
+        <v>585.5</v>
       </c>
       <c r="I21">
-        <v>5382.5</v>
+        <v>878.2</v>
       </c>
       <c r="J21">
-        <v>6501</v>
+        <v>1171</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>4264</v>
+        <v>1171</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O21">
-        <v>1.5</v>
+        <v>-0.1</v>
       </c>
       <c r="P21">
-        <v>1455</v>
+        <v>847</v>
       </c>
       <c r="Q21">
-        <v>727.5</v>
+        <v>423.5</v>
       </c>
       <c r="R21">
-        <v>470.2</v>
+        <v>598.9</v>
       </c>
       <c r="S21">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>561.2</v>
+        <v>211.8</v>
       </c>
       <c r="U21">
-        <v>727.5</v>
+        <v>423.5</v>
       </c>
       <c r="V21">
-        <v>893.8</v>
+        <v>635.2</v>
       </c>
       <c r="W21">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="X21">
         <v>2</v>
       </c>
       <c r="Y21">
+        <v>847</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>50</v>
+      </c>
+      <c r="AB21">
+        <v>-0.1</v>
+      </c>
+      <c r="AC21">
+        <v>1455</v>
+      </c>
+      <c r="AD21">
         <v>727.5</v>
       </c>
-      <c r="Z21">
+      <c r="AE21">
+        <v>470.2</v>
+      </c>
+      <c r="AF21">
+        <v>395</v>
+      </c>
+      <c r="AG21">
+        <v>561.2</v>
+      </c>
+      <c r="AH21">
+        <v>727.5</v>
+      </c>
+      <c r="AI21">
+        <v>893.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1060</v>
+      </c>
+      <c r="AK21">
         <v>2</v>
       </c>
-      <c r="AA21">
+      <c r="AL21">
+        <v>727.5</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
         <v>100</v>
       </c>
-      <c r="AB21">
+      <c r="AO21">
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>122622</v>
+        <v>82170</v>
       </c>
       <c r="D22">
-        <v>2452.4</v>
+        <v>1643.4</v>
       </c>
       <c r="E22">
-        <v>4184.1</v>
+        <v>2352.7</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>829</v>
+        <v>579.5</v>
       </c>
       <c r="I22">
-        <v>2577.2</v>
+        <v>1929</v>
       </c>
       <c r="J22">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K22">
         <v>50</v>
       </c>
       <c r="L22">
-        <v>3144.2</v>
+        <v>2106.9</v>
       </c>
       <c r="M22">
         <v>39</v>
@@ -2126,61 +2882,100 @@
         <v>78</v>
       </c>
       <c r="O22">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="P22">
-        <v>27953</v>
+        <v>39967</v>
       </c>
       <c r="Q22">
-        <v>559.1</v>
+        <v>799.3</v>
       </c>
       <c r="R22">
-        <v>699</v>
+        <v>1984.7</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U22">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="V22">
-        <v>980.2</v>
+        <v>593</v>
       </c>
       <c r="W22">
-        <v>3210</v>
+        <v>9692</v>
       </c>
       <c r="X22">
         <v>50</v>
       </c>
       <c r="Y22">
+        <v>1051.8</v>
+      </c>
+      <c r="Z22">
+        <v>38</v>
+      </c>
+      <c r="AA22">
+        <v>76</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>27953</v>
+      </c>
+      <c r="AD22">
+        <v>559.1</v>
+      </c>
+      <c r="AE22">
+        <v>699</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>247</v>
+      </c>
+      <c r="AI22">
+        <v>980.2</v>
+      </c>
+      <c r="AJ22">
+        <v>3210</v>
+      </c>
+      <c r="AK22">
+        <v>50</v>
+      </c>
+      <c r="AL22">
         <v>1035.3</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>27</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>54</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>199939</v>
+        <v>61392</v>
       </c>
       <c r="D23">
-        <v>2019.6</v>
+        <v>620.1</v>
       </c>
       <c r="E23">
-        <v>7314.4</v>
+        <v>978</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2189,37 +2984,37 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>432</v>
+        <v>122</v>
       </c>
       <c r="I23">
-        <v>1397.5</v>
+        <v>875</v>
       </c>
       <c r="J23">
-        <v>68140</v>
+        <v>5691</v>
       </c>
       <c r="K23">
         <v>99</v>
       </c>
       <c r="L23">
-        <v>2984.2</v>
+        <v>1040.5</v>
       </c>
       <c r="M23">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N23">
-        <v>67.7</v>
+        <v>59.6</v>
       </c>
       <c r="O23">
         <v>0.3</v>
       </c>
       <c r="P23">
-        <v>28993</v>
+        <v>11157</v>
       </c>
       <c r="Q23">
-        <v>292.9</v>
+        <v>112.7</v>
       </c>
       <c r="R23">
-        <v>776.1</v>
+        <v>185.9</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2228,43 +3023,82 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V23">
-        <v>350.5</v>
+        <v>164</v>
       </c>
       <c r="W23">
-        <v>6448</v>
+        <v>956</v>
       </c>
       <c r="X23">
         <v>99</v>
       </c>
       <c r="Y23">
+        <v>186</v>
+      </c>
+      <c r="Z23">
+        <v>60</v>
+      </c>
+      <c r="AA23">
+        <v>60.6</v>
+      </c>
+      <c r="AB23">
+        <v>0.4</v>
+      </c>
+      <c r="AC23">
+        <v>28993</v>
+      </c>
+      <c r="AD23">
+        <v>292.9</v>
+      </c>
+      <c r="AE23">
+        <v>776.1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>350.5</v>
+      </c>
+      <c r="AJ23">
+        <v>6448</v>
+      </c>
+      <c r="AK23">
+        <v>99</v>
+      </c>
+      <c r="AL23">
         <v>906</v>
       </c>
-      <c r="Z23">
+      <c r="AM23">
         <v>32</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>32.3</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>293103</v>
+        <v>155103</v>
       </c>
       <c r="D24">
-        <v>930.5</v>
+        <v>492.4</v>
       </c>
       <c r="E24">
-        <v>3973.8</v>
+        <v>2822.7</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2276,34 +3110,34 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>414.5</v>
+        <v>251.5</v>
       </c>
       <c r="J24">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K24">
         <v>315</v>
       </c>
       <c r="L24">
-        <v>1878.9</v>
+        <v>1115.8</v>
       </c>
       <c r="M24">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="N24">
-        <v>49.5</v>
+        <v>44.1</v>
       </c>
       <c r="O24">
         <v>-0.4</v>
       </c>
       <c r="P24">
-        <v>98493</v>
+        <v>43964</v>
       </c>
       <c r="Q24">
-        <v>312.7</v>
+        <v>139.6</v>
       </c>
       <c r="R24">
-        <v>2147.6</v>
+        <v>689.7</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2315,40 +3149,79 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="W24">
-        <v>36858</v>
+        <v>8505</v>
       </c>
       <c r="X24">
         <v>315</v>
       </c>
       <c r="Y24">
+        <v>305.3</v>
+      </c>
+      <c r="Z24">
+        <v>144</v>
+      </c>
+      <c r="AA24">
+        <v>45.7</v>
+      </c>
+      <c r="AB24">
+        <v>-0.3</v>
+      </c>
+      <c r="AC24">
+        <v>98493</v>
+      </c>
+      <c r="AD24">
+        <v>312.7</v>
+      </c>
+      <c r="AE24">
+        <v>2147.6</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>36858</v>
+      </c>
+      <c r="AK24">
+        <v>315</v>
+      </c>
+      <c r="AL24">
         <v>1492.3</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>66</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>21</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>20953</v>
+        <v>15705</v>
       </c>
       <c r="D25">
-        <v>748.3</v>
+        <v>560.9</v>
       </c>
       <c r="E25">
-        <v>1405.4</v>
+        <v>952.3</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2357,19 +3230,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>986.5</v>
+        <v>901.8</v>
       </c>
       <c r="J25">
-        <v>6555</v>
+        <v>4124</v>
       </c>
       <c r="K25">
         <v>28</v>
       </c>
       <c r="L25">
-        <v>1396.9</v>
+        <v>1047</v>
       </c>
       <c r="M25">
         <v>15</v>
@@ -2378,16 +3251,16 @@
         <v>53.6</v>
       </c>
       <c r="O25">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P25">
-        <v>4009</v>
+        <v>5190</v>
       </c>
       <c r="Q25">
-        <v>143.2</v>
+        <v>185.4</v>
       </c>
       <c r="R25">
-        <v>317.6</v>
+        <v>475.5</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2396,168 +3269,246 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25">
-        <v>15</v>
+        <v>91.5</v>
       </c>
       <c r="W25">
-        <v>1206</v>
+        <v>2400</v>
       </c>
       <c r="X25">
         <v>28</v>
       </c>
       <c r="Y25">
+        <v>346</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+      <c r="AA25">
+        <v>53.6</v>
+      </c>
+      <c r="AB25">
+        <v>0.1</v>
+      </c>
+      <c r="AC25">
+        <v>4009</v>
+      </c>
+      <c r="AD25">
+        <v>143.2</v>
+      </c>
+      <c r="AE25">
+        <v>317.6</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>15</v>
+      </c>
+      <c r="AJ25">
+        <v>1206</v>
+      </c>
+      <c r="AK25">
+        <v>28</v>
+      </c>
+      <c r="AL25">
         <v>572.7</v>
       </c>
-      <c r="Z25">
+      <c r="AM25">
         <v>7</v>
       </c>
-      <c r="AA25">
+      <c r="AN25">
         <v>25</v>
       </c>
-      <c r="AB25">
+      <c r="AO25">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>36843</v>
+        <v>25671</v>
       </c>
       <c r="D26">
-        <v>1473.7</v>
+        <v>1026.8</v>
       </c>
       <c r="E26">
-        <v>1936.4</v>
+        <v>1446</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="H26">
-        <v>856</v>
+        <v>496</v>
       </c>
       <c r="I26">
-        <v>1573</v>
+        <v>1045</v>
       </c>
       <c r="J26">
-        <v>6854</v>
+        <v>5793</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26">
-        <v>1754.4</v>
+        <v>1283.6</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O26">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="P26">
-        <v>9825</v>
+        <v>4275</v>
       </c>
       <c r="Q26">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="R26">
-        <v>436.2</v>
+        <v>224.7</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="V26">
-        <v>602</v>
+        <v>238</v>
       </c>
       <c r="W26">
-        <v>1651</v>
+        <v>938</v>
       </c>
       <c r="X26">
         <v>25</v>
       </c>
       <c r="Y26">
+        <v>213.8</v>
+      </c>
+      <c r="Z26">
+        <v>20</v>
+      </c>
+      <c r="AA26">
+        <v>80</v>
+      </c>
+      <c r="AB26">
+        <v>1.2</v>
+      </c>
+      <c r="AC26">
+        <v>9825</v>
+      </c>
+      <c r="AD26">
+        <v>393</v>
+      </c>
+      <c r="AE26">
+        <v>436.2</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>326</v>
+      </c>
+      <c r="AI26">
+        <v>602</v>
+      </c>
+      <c r="AJ26">
+        <v>1651</v>
+      </c>
+      <c r="AK26">
+        <v>25</v>
+      </c>
+      <c r="AL26">
         <v>655</v>
       </c>
-      <c r="Z26">
+      <c r="AM26">
         <v>15</v>
       </c>
-      <c r="AA26">
+      <c r="AN26">
         <v>60</v>
       </c>
-      <c r="AB26">
+      <c r="AO26">
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>117396</v>
+        <v>32245</v>
       </c>
       <c r="D27">
-        <v>2174</v>
+        <v>597.1</v>
       </c>
       <c r="E27">
-        <v>5278.5</v>
+        <v>914.3</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>330</v>
+        <v>94.5</v>
       </c>
       <c r="I27">
-        <v>1778.8</v>
+        <v>828.8</v>
       </c>
       <c r="J27">
-        <v>30621</v>
+        <v>3155</v>
       </c>
       <c r="K27">
         <v>54</v>
       </c>
       <c r="L27">
-        <v>2730.1</v>
+        <v>895.7</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N27">
-        <v>79.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="O27">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P27">
-        <v>39434</v>
+        <v>4479</v>
       </c>
       <c r="Q27">
-        <v>730.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="R27">
-        <v>2080.9</v>
+        <v>191.7</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2566,43 +3517,82 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V27">
-        <v>555</v>
+        <v>76</v>
       </c>
       <c r="W27">
-        <v>13336</v>
+        <v>1236</v>
       </c>
       <c r="X27">
         <v>54</v>
       </c>
       <c r="Y27">
+        <v>124.4</v>
+      </c>
+      <c r="Z27">
+        <v>36</v>
+      </c>
+      <c r="AA27">
+        <v>66.7</v>
+      </c>
+      <c r="AB27">
+        <v>0.6</v>
+      </c>
+      <c r="AC27">
+        <v>39434</v>
+      </c>
+      <c r="AD27">
+        <v>730.3</v>
+      </c>
+      <c r="AE27">
+        <v>2080.9</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>555</v>
+      </c>
+      <c r="AJ27">
+        <v>13336</v>
+      </c>
+      <c r="AK27">
+        <v>54</v>
+      </c>
+      <c r="AL27">
         <v>1714.5</v>
       </c>
-      <c r="Z27">
+      <c r="AM27">
         <v>23</v>
       </c>
-      <c r="AA27">
+      <c r="AN27">
         <v>42.6</v>
       </c>
-      <c r="AB27">
+      <c r="AO27">
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>170737</v>
+        <v>35503</v>
       </c>
       <c r="D28">
-        <v>1376.9</v>
+        <v>286.3</v>
       </c>
       <c r="E28">
-        <v>4395.4</v>
+        <v>672</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2611,37 +3601,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>697</v>
+        <v>255</v>
       </c>
       <c r="J28">
-        <v>30621</v>
+        <v>4906</v>
       </c>
       <c r="K28">
         <v>124</v>
       </c>
       <c r="L28">
-        <v>2404.7</v>
+        <v>612.1</v>
       </c>
       <c r="M28">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N28">
-        <v>57.3</v>
+        <v>46.8</v>
       </c>
       <c r="O28">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P28">
-        <v>52751</v>
+        <v>10239</v>
       </c>
       <c r="Q28">
-        <v>425.4</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="R28">
-        <v>1356.2</v>
+        <v>325.1</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2653,40 +3643,79 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>306.8</v>
+        <v>25</v>
       </c>
       <c r="W28">
-        <v>13336</v>
+        <v>3183</v>
       </c>
       <c r="X28">
         <v>124</v>
       </c>
       <c r="Y28">
+        <v>173.5</v>
+      </c>
+      <c r="Z28">
+        <v>59</v>
+      </c>
+      <c r="AA28">
+        <v>47.6</v>
+      </c>
+      <c r="AB28">
+        <v>-0.2</v>
+      </c>
+      <c r="AC28">
+        <v>52751</v>
+      </c>
+      <c r="AD28">
+        <v>425.4</v>
+      </c>
+      <c r="AE28">
+        <v>1356.2</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>306.8</v>
+      </c>
+      <c r="AJ28">
+        <v>13336</v>
+      </c>
+      <c r="AK28">
+        <v>124</v>
+      </c>
+      <c r="AL28">
         <v>1034.3</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>51</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>41.1</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>4118</v>
+        <v>3884</v>
       </c>
       <c r="D29">
-        <v>1029.5</v>
+        <v>971</v>
       </c>
       <c r="E29">
-        <v>2056.3</v>
+        <v>1940</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2695,19 +3724,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I29">
-        <v>1031.5</v>
+        <v>972.5</v>
       </c>
       <c r="J29">
-        <v>4114</v>
+        <v>3881</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29">
-        <v>2059</v>
+        <v>1942</v>
       </c>
       <c r="M29">
         <v>2</v>
@@ -2716,16 +3745,16 @@
         <v>50</v>
       </c>
       <c r="O29">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="P29">
-        <v>2866</v>
+        <v>236</v>
       </c>
       <c r="Q29">
-        <v>716.5</v>
+        <v>59</v>
       </c>
       <c r="R29">
-        <v>1433</v>
+        <v>117.3</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2734,34 +3763,74 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V29">
-        <v>716.5</v>
+        <v>59.5</v>
       </c>
       <c r="W29">
-        <v>2866</v>
+        <v>235</v>
       </c>
       <c r="X29">
         <v>4</v>
       </c>
       <c r="Y29">
+        <v>118</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <v>50</v>
+      </c>
+      <c r="AB29">
+        <v>-0.1</v>
+      </c>
+      <c r="AC29">
         <v>2866</v>
       </c>
-      <c r="Z29">
+      <c r="AD29">
+        <v>716.5</v>
+      </c>
+      <c r="AE29">
+        <v>1433</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>716.5</v>
+      </c>
+      <c r="AJ29">
+        <v>2866</v>
+      </c>
+      <c r="AK29">
+        <v>4</v>
+      </c>
+      <c r="AL29">
+        <v>2866</v>
+      </c>
+      <c r="AM29">
         <v>1</v>
       </c>
-      <c r="AA29">
+      <c r="AN29">
         <v>25</v>
       </c>
-      <c r="AB29">
+      <c r="AO29">
         <v>-0.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A16"/>

--- a/data/analysis/social_media_analytics/pivot_tables/country-size/museum_activity_groups__var2-country-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country-size/museum_activity_groups__var2-country-size.xlsx
@@ -648,13 +648,13 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -666,16 +666,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -687,13 +687,13 @@
         <v>-1.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>4</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>-1.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -768,13 +768,13 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="D5">
-        <v>133.3</v>
+        <v>183.1</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>549.3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
       <c r="L5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -807,13 +807,13 @@
         <v>-1.8</v>
       </c>
       <c r="P5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="Q5">
-        <v>49.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R5">
-        <v>149</v>
+        <v>214.3</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="X5">
         <v>9</v>
       </c>
       <c r="Y5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -846,13 +846,13 @@
         <v>-1.8</v>
       </c>
       <c r="AC5">
-        <v>619</v>
+        <v>796</v>
       </c>
       <c r="AD5">
-        <v>68.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="AE5">
-        <v>206.3</v>
+        <v>254.6</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>619</v>
+        <v>767</v>
       </c>
       <c r="AK5">
         <v>9</v>
       </c>
       <c r="AL5">
-        <v>619</v>
+        <v>398</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN5">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
       <c r="AO5">
-        <v>-0.8</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -930,13 +930,13 @@
         <v>-1.2</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="R6">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -948,16 +948,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="W6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -969,13 +969,13 @@
         <v>-1.2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -984,25 +984,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AK6">
         <v>4</v>
       </c>
+      <c r="AL6">
+        <v>113</v>
+      </c>
       <c r="AM6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO6">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1047,7 +1050,7 @@
         <v>14.3</v>
       </c>
       <c r="O7">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="P7">
         <v>16</v>
@@ -1089,13 +1092,13 @@
         <v>-1.6</v>
       </c>
       <c r="AC7">
-        <v>223</v>
+        <v>1263</v>
       </c>
       <c r="AD7">
-        <v>31.9</v>
+        <v>180.4</v>
       </c>
       <c r="AE7">
-        <v>84.3</v>
+        <v>368.3</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1107,25 +1110,25 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="AJ7">
-        <v>223</v>
+        <v>981</v>
       </c>
       <c r="AK7">
         <v>7</v>
       </c>
       <c r="AL7">
-        <v>223</v>
+        <v>631.5</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>14.3</v>
+        <v>28.6</v>
       </c>
       <c r="AO7">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1136,34 +1139,34 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>31393</v>
+        <v>38370</v>
       </c>
       <c r="D8">
-        <v>3139.3</v>
+        <v>3837</v>
       </c>
       <c r="E8">
-        <v>3334.9</v>
+        <v>3821.3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>375</v>
+        <v>635.5</v>
       </c>
       <c r="H8">
-        <v>2555.5</v>
+        <v>3790</v>
       </c>
       <c r="I8">
-        <v>4353.8</v>
+        <v>4923</v>
       </c>
       <c r="J8">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
       <c r="L8">
-        <v>4484.7</v>
+        <v>5481.4</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1175,34 +1178,34 @@
         <v>0.8</v>
       </c>
       <c r="P8">
-        <v>56883</v>
+        <v>69262</v>
       </c>
       <c r="Q8">
-        <v>5688.3</v>
+        <v>6926.2</v>
       </c>
       <c r="R8">
-        <v>5945.6</v>
+        <v>6845.9</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>687.8</v>
+        <v>880.2</v>
       </c>
       <c r="U8">
-        <v>4321</v>
+        <v>5462</v>
       </c>
       <c r="V8">
-        <v>7609.8</v>
+        <v>10341.2</v>
       </c>
       <c r="W8">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X8">
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>7110.4</v>
+        <v>8657.799999999999</v>
       </c>
       <c r="Z8">
         <v>8</v>
@@ -1211,37 +1214,37 @@
         <v>80</v>
       </c>
       <c r="AB8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC8">
-        <v>10253</v>
+        <v>12173</v>
       </c>
       <c r="AD8">
-        <v>1025.3</v>
+        <v>1217.3</v>
       </c>
       <c r="AE8">
-        <v>995.4</v>
+        <v>1151.9</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>72.8</v>
+        <v>98</v>
       </c>
       <c r="AH8">
-        <v>992</v>
+        <v>1206</v>
       </c>
       <c r="AI8">
-        <v>1514.5</v>
+        <v>1917.5</v>
       </c>
       <c r="AJ8">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK8">
         <v>10</v>
       </c>
       <c r="AL8">
-        <v>1464.7</v>
+        <v>1739</v>
       </c>
       <c r="AM8">
         <v>7</v>
@@ -1250,7 +1253,7 @@
         <v>70</v>
       </c>
       <c r="AO8">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1259,121 +1262,121 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>644736</v>
+        <v>761457</v>
       </c>
       <c r="D9">
-        <v>1568.7</v>
+        <v>1852.7</v>
       </c>
       <c r="E9">
-        <v>2470.9</v>
+        <v>2964.9</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>203.5</v>
+        <v>231</v>
       </c>
       <c r="H9">
-        <v>853</v>
+        <v>1004</v>
       </c>
       <c r="I9">
-        <v>1982</v>
+        <v>2278</v>
       </c>
       <c r="J9">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K9">
         <v>411</v>
       </c>
       <c r="L9">
-        <v>1913.2</v>
+        <v>2273</v>
       </c>
       <c r="M9">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N9">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="O9">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P9">
-        <v>292654</v>
+        <v>338851</v>
       </c>
       <c r="Q9">
-        <v>712.1</v>
+        <v>824.5</v>
       </c>
       <c r="R9">
-        <v>1828.1</v>
+        <v>2155.8</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="U9">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="V9">
-        <v>651.5</v>
+        <v>716.5</v>
       </c>
       <c r="W9">
-        <v>20111</v>
+        <v>24554</v>
       </c>
       <c r="X9">
         <v>411</v>
       </c>
       <c r="Y9">
-        <v>845.8</v>
+        <v>985</v>
       </c>
       <c r="Z9">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AA9">
-        <v>84.2</v>
+        <v>83.7</v>
       </c>
       <c r="AB9">
         <v>1.4</v>
       </c>
       <c r="AC9">
-        <v>225438</v>
+        <v>317980</v>
       </c>
       <c r="AD9">
-        <v>548.5</v>
+        <v>773.7</v>
       </c>
       <c r="AE9">
-        <v>589.7</v>
+        <v>733.8</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="AH9">
-        <v>450</v>
+        <v>633</v>
       </c>
       <c r="AI9">
-        <v>842</v>
+        <v>1098</v>
       </c>
       <c r="AJ9">
-        <v>4241</v>
+        <v>5325</v>
       </c>
       <c r="AK9">
         <v>411</v>
       </c>
       <c r="AL9">
-        <v>822.8</v>
+        <v>932.5</v>
       </c>
       <c r="AM9">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="AN9">
-        <v>66.7</v>
+        <v>83</v>
       </c>
       <c r="AO9">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1382,13 +1385,13 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>560822</v>
+        <v>656034</v>
       </c>
       <c r="D10">
-        <v>827.2</v>
+        <v>967.6</v>
       </c>
       <c r="E10">
-        <v>2162</v>
+        <v>2668</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1397,37 +1400,37 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>219.5</v>
+        <v>260</v>
       </c>
       <c r="I10">
-        <v>1003.8</v>
+        <v>1165.5</v>
       </c>
       <c r="J10">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K10">
         <v>678</v>
       </c>
       <c r="L10">
-        <v>1178.2</v>
+        <v>1395.8</v>
       </c>
       <c r="M10">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N10">
-        <v>70.2</v>
+        <v>69.3</v>
       </c>
       <c r="O10">
         <v>0.8</v>
       </c>
       <c r="P10">
-        <v>185834</v>
+        <v>207094</v>
       </c>
       <c r="Q10">
-        <v>274.1</v>
+        <v>305.4</v>
       </c>
       <c r="R10">
-        <v>1879.2</v>
+        <v>1974.9</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1436,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V10">
-        <v>180.8</v>
+        <v>205.5</v>
       </c>
       <c r="W10">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X10">
         <v>678</v>
       </c>
       <c r="Y10">
-        <v>381.6</v>
+        <v>430.5</v>
       </c>
       <c r="Z10">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AA10">
-        <v>71.8</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC10">
-        <v>301554</v>
+        <v>371985</v>
       </c>
       <c r="AD10">
-        <v>444.8</v>
+        <v>548.7</v>
       </c>
       <c r="AE10">
-        <v>1591.2</v>
+        <v>655.6</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1475,28 +1478,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="AI10">
-        <v>588.5</v>
+        <v>884</v>
       </c>
       <c r="AJ10">
-        <v>36948</v>
+        <v>5487</v>
       </c>
       <c r="AK10">
         <v>678</v>
       </c>
       <c r="AL10">
-        <v>985.5</v>
+        <v>738.1</v>
       </c>
       <c r="AM10">
-        <v>306</v>
+        <v>504</v>
       </c>
       <c r="AN10">
-        <v>45.1</v>
+        <v>74.3</v>
       </c>
       <c r="AO10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1505,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>606809</v>
+        <v>709302</v>
       </c>
       <c r="D11">
-        <v>459</v>
+        <v>536.5</v>
       </c>
       <c r="E11">
-        <v>1082.3</v>
+        <v>1298.6</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1520,37 +1523,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I11">
-        <v>425.2</v>
+        <v>488</v>
       </c>
       <c r="J11">
-        <v>14101</v>
+        <v>18235</v>
       </c>
       <c r="K11">
         <v>1322</v>
       </c>
       <c r="L11">
-        <v>846.3</v>
+        <v>997.6</v>
       </c>
       <c r="M11">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="N11">
-        <v>54.2</v>
+        <v>53.8</v>
       </c>
       <c r="O11">
         <v>0.1</v>
       </c>
       <c r="P11">
-        <v>199101</v>
+        <v>230005</v>
       </c>
       <c r="Q11">
-        <v>150.6</v>
+        <v>174</v>
       </c>
       <c r="R11">
-        <v>631.1</v>
+        <v>725.6</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1562,16 +1565,16 @@
         <v>3</v>
       </c>
       <c r="V11">
-        <v>63</v>
+        <v>76.8</v>
       </c>
       <c r="W11">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X11">
         <v>1322</v>
       </c>
       <c r="Y11">
-        <v>275</v>
+        <v>317.7</v>
       </c>
       <c r="Z11">
         <v>724</v>
@@ -1583,13 +1586,13 @@
         <v>0.1</v>
       </c>
       <c r="AC11">
-        <v>279404</v>
+        <v>396265</v>
       </c>
       <c r="AD11">
-        <v>211.3</v>
+        <v>299.7</v>
       </c>
       <c r="AE11">
-        <v>816.5</v>
+        <v>547.6</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1598,28 +1601,28 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="AI11">
-        <v>19.2</v>
+        <v>368.2</v>
       </c>
       <c r="AJ11">
-        <v>21892</v>
+        <v>5226</v>
       </c>
       <c r="AK11">
         <v>1322</v>
       </c>
       <c r="AL11">
-        <v>831.6</v>
+        <v>525.6</v>
       </c>
       <c r="AM11">
-        <v>336</v>
+        <v>754</v>
       </c>
       <c r="AN11">
-        <v>25.4</v>
+        <v>57</v>
       </c>
       <c r="AO11">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1628,13 +1631,13 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>43040</v>
+        <v>52805</v>
       </c>
       <c r="D12">
-        <v>512.4</v>
+        <v>628.6</v>
       </c>
       <c r="E12">
-        <v>1065.4</v>
+        <v>1454.6</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1643,37 +1646,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12">
-        <v>692</v>
+        <v>866.5</v>
       </c>
       <c r="J12">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="K12">
         <v>84</v>
       </c>
       <c r="L12">
-        <v>915.7</v>
+        <v>1147.9</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12">
-        <v>56</v>
+        <v>54.8</v>
       </c>
       <c r="O12">
         <v>0.2</v>
       </c>
       <c r="P12">
-        <v>13856</v>
+        <v>15629</v>
       </c>
       <c r="Q12">
-        <v>165</v>
+        <v>186.1</v>
       </c>
       <c r="R12">
-        <v>500.5</v>
+        <v>563</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1682,37 +1685,37 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V12">
-        <v>105</v>
+        <v>117.5</v>
       </c>
       <c r="W12">
-        <v>3807</v>
+        <v>4177</v>
       </c>
       <c r="X12">
         <v>84</v>
       </c>
       <c r="Y12">
-        <v>307.9</v>
+        <v>339.8</v>
       </c>
       <c r="Z12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA12">
-        <v>53.6</v>
+        <v>54.8</v>
       </c>
       <c r="AB12">
         <v>0.1</v>
       </c>
       <c r="AC12">
-        <v>55983</v>
+        <v>38486</v>
       </c>
       <c r="AD12">
-        <v>666.5</v>
+        <v>458.2</v>
       </c>
       <c r="AE12">
-        <v>2526.5</v>
+        <v>677.7</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1721,28 +1724,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AI12">
-        <v>282.5</v>
+        <v>758.2</v>
       </c>
       <c r="AJ12">
-        <v>20246</v>
+        <v>3251</v>
       </c>
       <c r="AK12">
         <v>84</v>
       </c>
       <c r="AL12">
-        <v>2239.3</v>
+        <v>740.1</v>
       </c>
       <c r="AM12">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AN12">
-        <v>29.8</v>
+        <v>61.9</v>
       </c>
       <c r="AO12">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1753,31 +1756,31 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="D13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="F13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="G13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="H13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="I13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="J13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1786,34 +1789,34 @@
         <v>100</v>
       </c>
       <c r="O13">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Q13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="S13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="T13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="U13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="V13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="W13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -1822,7 +1825,7 @@
         <v>100</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1855,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>-1.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1903,13 +1906,13 @@
         <v>-1.2</v>
       </c>
       <c r="P14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1921,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X14">
         <v>4</v>
       </c>
       <c r="Y14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -1942,13 +1945,13 @@
         <v>-1.2</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1960,19 +1963,22 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AK14">
         <v>4</v>
       </c>
+      <c r="AL14">
+        <v>61</v>
+      </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO14">
         <v>-1.2</v>
@@ -2023,13 +2029,13 @@
         <v>-0.8</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="R15">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2041,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
         <v>1</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
       </c>
       <c r="X15">
         <v>3</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2062,13 +2068,13 @@
         <v>-0.8</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>72.2</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2080,22 +2086,25 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AK15">
         <v>3</v>
       </c>
+      <c r="AL15">
+        <v>125</v>
+      </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AO15">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2104,13 +2113,13 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>49204</v>
+        <v>54004</v>
       </c>
       <c r="D16">
-        <v>7029.1</v>
+        <v>7714.9</v>
       </c>
       <c r="E16">
-        <v>17887.6</v>
+        <v>19654.6</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2122,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="J16">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K16">
         <v>7</v>
       </c>
       <c r="L16">
-        <v>24602</v>
+        <v>27002</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -2143,13 +2152,13 @@
         <v>-1</v>
       </c>
       <c r="P16">
-        <v>21295</v>
+        <v>25062</v>
       </c>
       <c r="Q16">
-        <v>3042.1</v>
+        <v>3580.3</v>
       </c>
       <c r="R16">
-        <v>7869</v>
+        <v>9278.200000000001</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2161,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="W16">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X16">
         <v>7</v>
       </c>
       <c r="Y16">
-        <v>10647.5</v>
+        <v>12531</v>
       </c>
       <c r="Z16">
         <v>2</v>
@@ -2182,13 +2191,13 @@
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>675</v>
+        <v>1807</v>
       </c>
       <c r="AD16">
-        <v>96.40000000000001</v>
+        <v>258.1</v>
       </c>
       <c r="AE16">
-        <v>255.1</v>
+        <v>425</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2200,25 +2209,25 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>437.5</v>
       </c>
       <c r="AJ16">
-        <v>675</v>
+        <v>932</v>
       </c>
       <c r="AK16">
         <v>7</v>
       </c>
       <c r="AL16">
-        <v>675</v>
+        <v>602.3</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN16">
-        <v>14.3</v>
+        <v>42.9</v>
       </c>
       <c r="AO16">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2229,121 +2238,121 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>5968</v>
+        <v>6052</v>
       </c>
       <c r="D17">
-        <v>852.6</v>
+        <v>864.6</v>
       </c>
       <c r="E17">
-        <v>564.6</v>
+        <v>778.4</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>566.5</v>
+        <v>298</v>
       </c>
       <c r="H17">
-        <v>874</v>
+        <v>675</v>
       </c>
       <c r="I17">
-        <v>1096</v>
+        <v>1378</v>
       </c>
       <c r="J17">
-        <v>1769</v>
+        <v>2025</v>
       </c>
       <c r="K17">
         <v>7</v>
       </c>
       <c r="L17">
-        <v>994.7</v>
+        <v>1210.4</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>85.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="O17">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="P17">
-        <v>2354</v>
+        <v>2424</v>
       </c>
       <c r="Q17">
-        <v>336.3</v>
+        <v>346.3</v>
       </c>
       <c r="R17">
-        <v>363.1</v>
+        <v>464.8</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>96</v>
+        <v>37.5</v>
       </c>
       <c r="U17">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="V17">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="W17">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="X17">
         <v>7</v>
       </c>
       <c r="Y17">
-        <v>392.3</v>
+        <v>484.8</v>
       </c>
       <c r="Z17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA17">
-        <v>85.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AB17">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AC17">
-        <v>4692</v>
+        <v>4314</v>
       </c>
       <c r="AD17">
-        <v>670.3</v>
+        <v>616.3</v>
       </c>
       <c r="AE17">
-        <v>396.1</v>
+        <v>439.5</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>519</v>
+        <v>346</v>
       </c>
       <c r="AH17">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="AI17">
-        <v>813</v>
+        <v>925</v>
       </c>
       <c r="AJ17">
-        <v>1292</v>
+        <v>1053</v>
       </c>
       <c r="AK17">
         <v>7</v>
       </c>
       <c r="AL17">
-        <v>782</v>
+        <v>862.8</v>
       </c>
       <c r="AM17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN17">
-        <v>85.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO17">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2352,13 +2361,13 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>18917</v>
+        <v>27833</v>
       </c>
       <c r="D18">
-        <v>945.8</v>
+        <v>1391.6</v>
       </c>
       <c r="E18">
-        <v>3297.5</v>
+        <v>5094.7</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2370,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>448</v>
+        <v>527.8</v>
       </c>
       <c r="J18">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K18">
         <v>20</v>
       </c>
       <c r="L18">
-        <v>2101.9</v>
+        <v>3092.6</v>
       </c>
       <c r="M18">
         <v>9</v>
@@ -2391,13 +2400,13 @@
         <v>-0.3</v>
       </c>
       <c r="P18">
-        <v>11195</v>
+        <v>18577</v>
       </c>
       <c r="Q18">
-        <v>559.8</v>
+        <v>928.8</v>
       </c>
       <c r="R18">
-        <v>2322.5</v>
+        <v>3948.6</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2409,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>58.8</v>
+        <v>67</v>
       </c>
       <c r="W18">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X18">
         <v>20</v>
       </c>
       <c r="Y18">
-        <v>1243.9</v>
+        <v>2064.1</v>
       </c>
       <c r="Z18">
         <v>9</v>
@@ -2430,13 +2439,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC18">
-        <v>14717</v>
+        <v>6546</v>
       </c>
       <c r="AD18">
-        <v>735.8</v>
+        <v>327.3</v>
       </c>
       <c r="AE18">
-        <v>1863.3</v>
+        <v>389.4</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2445,25 +2454,25 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="AI18">
-        <v>458.2</v>
+        <v>727</v>
       </c>
       <c r="AJ18">
-        <v>6887</v>
+        <v>1112</v>
       </c>
       <c r="AK18">
         <v>20</v>
       </c>
       <c r="AL18">
-        <v>2102.4</v>
+        <v>595.1</v>
       </c>
       <c r="AM18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AN18">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -2475,13 +2484,13 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>15544</v>
+        <v>19135</v>
       </c>
       <c r="D19">
-        <v>272.7</v>
+        <v>335.7</v>
       </c>
       <c r="E19">
-        <v>769.7</v>
+        <v>955.3</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2493,16 +2502,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="J19">
-        <v>4946</v>
+        <v>6087</v>
       </c>
       <c r="K19">
         <v>57</v>
       </c>
       <c r="L19">
-        <v>647.7</v>
+        <v>797.3</v>
       </c>
       <c r="M19">
         <v>24</v>
@@ -2514,13 +2523,13 @@
         <v>-0.4</v>
       </c>
       <c r="P19">
-        <v>2546</v>
+        <v>3409</v>
       </c>
       <c r="Q19">
-        <v>44.7</v>
+        <v>59.8</v>
       </c>
       <c r="R19">
-        <v>103.6</v>
+        <v>140.8</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2532,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W19">
-        <v>428</v>
+        <v>689</v>
       </c>
       <c r="X19">
         <v>57</v>
       </c>
       <c r="Y19">
-        <v>110.7</v>
+        <v>148.2</v>
       </c>
       <c r="Z19">
         <v>23</v>
@@ -2553,13 +2562,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>15200</v>
+        <v>17467</v>
       </c>
       <c r="AD19">
-        <v>266.7</v>
+        <v>306.4</v>
       </c>
       <c r="AE19">
-        <v>975</v>
+        <v>417.8</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2568,28 +2577,28 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AJ19">
-        <v>6887</v>
+        <v>1516</v>
       </c>
       <c r="AK19">
         <v>57</v>
       </c>
       <c r="AL19">
-        <v>1266.7</v>
+        <v>563.5</v>
       </c>
       <c r="AM19">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AN19">
-        <v>21.1</v>
+        <v>54.4</v>
       </c>
       <c r="AO19">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2598,13 +2607,13 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>11337</v>
+        <v>13161</v>
       </c>
       <c r="D20">
-        <v>1133.7</v>
+        <v>1316.1</v>
       </c>
       <c r="E20">
-        <v>1795.9</v>
+        <v>2083.5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2613,19 +2622,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>218.5</v>
+        <v>221.5</v>
       </c>
       <c r="I20">
-        <v>1752</v>
+        <v>2106.8</v>
       </c>
       <c r="J20">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K20">
         <v>10</v>
       </c>
       <c r="L20">
-        <v>1889.5</v>
+        <v>2193.5</v>
       </c>
       <c r="M20">
         <v>6</v>
@@ -2634,16 +2643,16 @@
         <v>60</v>
       </c>
       <c r="O20">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P20">
-        <v>2061</v>
+        <v>2392</v>
       </c>
       <c r="Q20">
-        <v>206.1</v>
+        <v>239.2</v>
       </c>
       <c r="R20">
-        <v>291.2</v>
+        <v>335.3</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2652,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V20">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="W20">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="X20">
         <v>10</v>
       </c>
       <c r="Y20">
-        <v>412.2</v>
+        <v>478.4</v>
       </c>
       <c r="Z20">
         <v>5</v>
@@ -2676,13 +2685,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC20">
-        <v>12079</v>
+        <v>6023</v>
       </c>
       <c r="AD20">
-        <v>1207.9</v>
+        <v>602.3</v>
       </c>
       <c r="AE20">
-        <v>2323.9</v>
+        <v>655.9</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2691,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>546</v>
+        <v>414.5</v>
       </c>
       <c r="AI20">
-        <v>1061.2</v>
+        <v>1160.2</v>
       </c>
       <c r="AJ20">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AK20">
         <v>10</v>
       </c>
       <c r="AL20">
-        <v>2013.2</v>
+        <v>1003.8</v>
       </c>
       <c r="AM20">
         <v>6</v>
@@ -2712,7 +2721,7 @@
         <v>60</v>
       </c>
       <c r="AO20">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2723,34 +2732,34 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="D21">
-        <v>585.5</v>
+        <v>638.5</v>
       </c>
       <c r="E21">
-        <v>828</v>
+        <v>903</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>292.8</v>
+        <v>319.2</v>
       </c>
       <c r="H21">
-        <v>585.5</v>
+        <v>638.5</v>
       </c>
       <c r="I21">
-        <v>878.2</v>
+        <v>957.8</v>
       </c>
       <c r="J21">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2762,34 +2771,34 @@
         <v>-0.1</v>
       </c>
       <c r="P21">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="Q21">
-        <v>423.5</v>
+        <v>489</v>
       </c>
       <c r="R21">
-        <v>598.9</v>
+        <v>691.6</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>211.8</v>
+        <v>244.5</v>
       </c>
       <c r="U21">
-        <v>423.5</v>
+        <v>489</v>
       </c>
       <c r="V21">
-        <v>635.2</v>
+        <v>733.5</v>
       </c>
       <c r="W21">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="X21">
         <v>2</v>
       </c>
       <c r="Y21">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -2801,34 +2810,34 @@
         <v>-0.1</v>
       </c>
       <c r="AC21">
-        <v>1455</v>
+        <v>1691</v>
       </c>
       <c r="AD21">
-        <v>727.5</v>
+        <v>845.5</v>
       </c>
       <c r="AE21">
-        <v>470.2</v>
+        <v>502.8</v>
       </c>
       <c r="AF21">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AG21">
-        <v>561.2</v>
+        <v>667.8</v>
       </c>
       <c r="AH21">
-        <v>727.5</v>
+        <v>845.5</v>
       </c>
       <c r="AI21">
-        <v>893.8</v>
+        <v>1023.2</v>
       </c>
       <c r="AJ21">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AK21">
         <v>2</v>
       </c>
       <c r="AL21">
-        <v>727.5</v>
+        <v>845.5</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -2837,7 +2846,7 @@
         <v>100</v>
       </c>
       <c r="AO21">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2846,34 +2855,34 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>82170</v>
+        <v>98937</v>
       </c>
       <c r="D22">
-        <v>1643.4</v>
+        <v>1978.7</v>
       </c>
       <c r="E22">
-        <v>2352.7</v>
+        <v>2801.7</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>49.2</v>
       </c>
       <c r="H22">
-        <v>579.5</v>
+        <v>649.5</v>
       </c>
       <c r="I22">
-        <v>1929</v>
+        <v>2489.8</v>
       </c>
       <c r="J22">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K22">
         <v>50</v>
       </c>
       <c r="L22">
-        <v>2106.9</v>
+        <v>2536.8</v>
       </c>
       <c r="M22">
         <v>39</v>
@@ -2882,37 +2891,37 @@
         <v>78</v>
       </c>
       <c r="O22">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P22">
-        <v>39967</v>
+        <v>46673</v>
       </c>
       <c r="Q22">
-        <v>799.3</v>
+        <v>933.5</v>
       </c>
       <c r="R22">
-        <v>1984.7</v>
+        <v>2288.9</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>13.8</v>
       </c>
       <c r="U22">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="V22">
-        <v>593</v>
+        <v>651</v>
       </c>
       <c r="W22">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X22">
         <v>50</v>
       </c>
       <c r="Y22">
-        <v>1051.8</v>
+        <v>1228.2</v>
       </c>
       <c r="Z22">
         <v>38</v>
@@ -2921,46 +2930,46 @@
         <v>76</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC22">
-        <v>27953</v>
+        <v>46700</v>
       </c>
       <c r="AD22">
-        <v>559.1</v>
+        <v>934</v>
       </c>
       <c r="AE22">
-        <v>699</v>
+        <v>1102.6</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>67.8</v>
       </c>
       <c r="AH22">
-        <v>247</v>
+        <v>829.5</v>
       </c>
       <c r="AI22">
-        <v>980.2</v>
+        <v>1381</v>
       </c>
       <c r="AJ22">
-        <v>3210</v>
+        <v>6193</v>
       </c>
       <c r="AK22">
         <v>50</v>
       </c>
       <c r="AL22">
-        <v>1035.3</v>
+        <v>1228.9</v>
       </c>
       <c r="AM22">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AN22">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AO22">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -2969,13 +2978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>61392</v>
+        <v>68512</v>
       </c>
       <c r="D23">
-        <v>620.1</v>
+        <v>692</v>
       </c>
       <c r="E23">
-        <v>978</v>
+        <v>1121</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2984,37 +2993,37 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I23">
-        <v>875</v>
+        <v>1031</v>
       </c>
       <c r="J23">
-        <v>5691</v>
+        <v>5795</v>
       </c>
       <c r="K23">
         <v>99</v>
       </c>
       <c r="L23">
-        <v>1040.5</v>
+        <v>1268.7</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N23">
-        <v>59.6</v>
+        <v>54.5</v>
       </c>
       <c r="O23">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P23">
-        <v>11157</v>
+        <v>11927</v>
       </c>
       <c r="Q23">
-        <v>112.7</v>
+        <v>120.5</v>
       </c>
       <c r="R23">
-        <v>185.9</v>
+        <v>201.8</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3023,37 +3032,37 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="V23">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="W23">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="X23">
         <v>99</v>
       </c>
       <c r="Y23">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="Z23">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AA23">
-        <v>60.6</v>
+        <v>56.6</v>
       </c>
       <c r="AB23">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AC23">
-        <v>28993</v>
+        <v>54725</v>
       </c>
       <c r="AD23">
-        <v>292.9</v>
+        <v>552.8</v>
       </c>
       <c r="AE23">
-        <v>776.1</v>
+        <v>1013.6</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3062,28 +3071,28 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="AI23">
-        <v>350.5</v>
+        <v>727.5</v>
       </c>
       <c r="AJ23">
-        <v>6448</v>
+        <v>8295</v>
       </c>
       <c r="AK23">
         <v>99</v>
       </c>
       <c r="AL23">
-        <v>906</v>
+        <v>841.9</v>
       </c>
       <c r="AM23">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AN23">
-        <v>32.3</v>
+        <v>65.7</v>
       </c>
       <c r="AO23">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3092,13 +3101,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>155103</v>
+        <v>178991</v>
       </c>
       <c r="D24">
-        <v>492.4</v>
+        <v>568.2</v>
       </c>
       <c r="E24">
-        <v>2822.7</v>
+        <v>3052.9</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3110,34 +3119,34 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>251.5</v>
+        <v>301</v>
       </c>
       <c r="J24">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K24">
         <v>315</v>
       </c>
       <c r="L24">
-        <v>1115.8</v>
+        <v>1297</v>
       </c>
       <c r="M24">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N24">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="O24">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P24">
-        <v>43964</v>
+        <v>52823</v>
       </c>
       <c r="Q24">
-        <v>139.6</v>
+        <v>167.7</v>
       </c>
       <c r="R24">
-        <v>689.7</v>
+        <v>835.5</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3149,34 +3158,34 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>36.5</v>
+        <v>43</v>
       </c>
       <c r="W24">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X24">
         <v>315</v>
       </c>
       <c r="Y24">
-        <v>305.3</v>
+        <v>369.4</v>
       </c>
       <c r="Z24">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA24">
-        <v>45.7</v>
+        <v>45.4</v>
       </c>
       <c r="AB24">
         <v>-0.3</v>
       </c>
       <c r="AC24">
-        <v>98493</v>
+        <v>84111</v>
       </c>
       <c r="AD24">
-        <v>312.7</v>
+        <v>267</v>
       </c>
       <c r="AE24">
-        <v>2147.6</v>
+        <v>506.9</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3185,28 +3194,28 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="AJ24">
-        <v>36858</v>
+        <v>4716</v>
       </c>
       <c r="AK24">
         <v>315</v>
       </c>
       <c r="AL24">
-        <v>1492.3</v>
+        <v>486.2</v>
       </c>
       <c r="AM24">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="AN24">
-        <v>21</v>
+        <v>54.9</v>
       </c>
       <c r="AO24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3215,13 +3224,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>15705</v>
+        <v>18258</v>
       </c>
       <c r="D25">
-        <v>560.9</v>
+        <v>652.1</v>
       </c>
       <c r="E25">
-        <v>952.3</v>
+        <v>1083.4</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3233,16 +3242,16 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>901.8</v>
+        <v>1093.8</v>
       </c>
       <c r="J25">
-        <v>4124</v>
+        <v>4576</v>
       </c>
       <c r="K25">
         <v>28</v>
       </c>
       <c r="L25">
-        <v>1047</v>
+        <v>1217.2</v>
       </c>
       <c r="M25">
         <v>15</v>
@@ -3254,13 +3263,13 @@
         <v>0.1</v>
       </c>
       <c r="P25">
-        <v>5190</v>
+        <v>5574</v>
       </c>
       <c r="Q25">
-        <v>185.4</v>
+        <v>199.1</v>
       </c>
       <c r="R25">
-        <v>475.5</v>
+        <v>501.2</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3269,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V25">
-        <v>91.5</v>
+        <v>108</v>
       </c>
       <c r="W25">
-        <v>2400</v>
+        <v>2528</v>
       </c>
       <c r="X25">
         <v>28</v>
       </c>
       <c r="Y25">
-        <v>346</v>
+        <v>371.6</v>
       </c>
       <c r="Z25">
         <v>15</v>
@@ -3293,13 +3302,13 @@
         <v>0.1</v>
       </c>
       <c r="AC25">
-        <v>4009</v>
+        <v>10147</v>
       </c>
       <c r="AD25">
-        <v>143.2</v>
+        <v>362.4</v>
       </c>
       <c r="AE25">
-        <v>317.6</v>
+        <v>556.9</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3308,28 +3317,28 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI25">
-        <v>15</v>
+        <v>543.8</v>
       </c>
       <c r="AJ25">
-        <v>1206</v>
+        <v>2010</v>
       </c>
       <c r="AK25">
         <v>28</v>
       </c>
       <c r="AL25">
-        <v>572.7</v>
+        <v>724.8</v>
       </c>
       <c r="AM25">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AN25">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AO25">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3340,34 +3349,34 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>25671</v>
+        <v>30306</v>
       </c>
       <c r="D26">
-        <v>1026.8</v>
+        <v>1212.2</v>
       </c>
       <c r="E26">
-        <v>1446</v>
+        <v>1713.4</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26">
-        <v>496</v>
+        <v>600</v>
       </c>
       <c r="I26">
-        <v>1045</v>
+        <v>1266</v>
       </c>
       <c r="J26">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26">
-        <v>1283.6</v>
+        <v>1515.3</v>
       </c>
       <c r="M26">
         <v>20</v>
@@ -3376,37 +3385,37 @@
         <v>80</v>
       </c>
       <c r="O26">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P26">
-        <v>4275</v>
+        <v>4913</v>
       </c>
       <c r="Q26">
-        <v>171</v>
+        <v>196.5</v>
       </c>
       <c r="R26">
-        <v>224.7</v>
+        <v>256.4</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U26">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="V26">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="W26">
-        <v>938</v>
+        <v>1056</v>
       </c>
       <c r="X26">
         <v>25</v>
       </c>
       <c r="Y26">
-        <v>213.8</v>
+        <v>245.6</v>
       </c>
       <c r="Z26">
         <v>20</v>
@@ -3415,46 +3424,46 @@
         <v>80</v>
       </c>
       <c r="AB26">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC26">
-        <v>9825</v>
+        <v>17457</v>
       </c>
       <c r="AD26">
-        <v>393</v>
+        <v>698.3</v>
       </c>
       <c r="AE26">
-        <v>436.2</v>
+        <v>561.2</v>
       </c>
       <c r="AF26">
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="AH26">
-        <v>326</v>
+        <v>464</v>
       </c>
       <c r="AI26">
-        <v>602</v>
+        <v>1080</v>
       </c>
       <c r="AJ26">
-        <v>1651</v>
+        <v>1979</v>
       </c>
       <c r="AK26">
         <v>25</v>
       </c>
       <c r="AL26">
-        <v>655</v>
+        <v>793.5</v>
       </c>
       <c r="AM26">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AN26">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AO26">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3463,13 +3472,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>32245</v>
+        <v>39030</v>
       </c>
       <c r="D27">
-        <v>597.1</v>
+        <v>722.8</v>
       </c>
       <c r="E27">
-        <v>914.3</v>
+        <v>1106</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3478,19 +3487,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>94.5</v>
+        <v>107</v>
       </c>
       <c r="I27">
-        <v>828.8</v>
+        <v>1031.5</v>
       </c>
       <c r="J27">
-        <v>3155</v>
+        <v>3771</v>
       </c>
       <c r="K27">
         <v>54</v>
       </c>
       <c r="L27">
-        <v>895.7</v>
+        <v>1084.2</v>
       </c>
       <c r="M27">
         <v>36</v>
@@ -3499,16 +3508,16 @@
         <v>66.7</v>
       </c>
       <c r="O27">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P27">
-        <v>4479</v>
+        <v>5279</v>
       </c>
       <c r="Q27">
-        <v>82.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="R27">
-        <v>191.7</v>
+        <v>219.6</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3517,19 +3526,19 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V27">
-        <v>76</v>
+        <v>90.5</v>
       </c>
       <c r="W27">
-        <v>1236</v>
+        <v>1378</v>
       </c>
       <c r="X27">
         <v>54</v>
       </c>
       <c r="Y27">
-        <v>124.4</v>
+        <v>146.6</v>
       </c>
       <c r="Z27">
         <v>36</v>
@@ -3538,16 +3547,16 @@
         <v>66.7</v>
       </c>
       <c r="AB27">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC27">
-        <v>39434</v>
+        <v>30514</v>
       </c>
       <c r="AD27">
-        <v>730.3</v>
+        <v>565.1</v>
       </c>
       <c r="AE27">
-        <v>2080.9</v>
+        <v>804.4</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3556,28 +3565,28 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="AI27">
-        <v>555</v>
+        <v>723.8</v>
       </c>
       <c r="AJ27">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AK27">
         <v>54</v>
       </c>
       <c r="AL27">
-        <v>1714.5</v>
+        <v>847.6</v>
       </c>
       <c r="AM27">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AN27">
-        <v>42.6</v>
+        <v>66.7</v>
       </c>
       <c r="AO27">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3586,13 +3595,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>35503</v>
+        <v>40896</v>
       </c>
       <c r="D28">
-        <v>286.3</v>
+        <v>329.8</v>
       </c>
       <c r="E28">
-        <v>672</v>
+        <v>805.5</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3604,16 +3613,16 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J28">
-        <v>4906</v>
+        <v>6478</v>
       </c>
       <c r="K28">
         <v>124</v>
       </c>
       <c r="L28">
-        <v>612.1</v>
+        <v>705.1</v>
       </c>
       <c r="M28">
         <v>58</v>
@@ -3625,13 +3634,13 @@
         <v>-0.2</v>
       </c>
       <c r="P28">
-        <v>10239</v>
+        <v>11967</v>
       </c>
       <c r="Q28">
-        <v>82.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="R28">
-        <v>325.1</v>
+        <v>407.2</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3643,34 +3652,34 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W28">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X28">
         <v>124</v>
       </c>
       <c r="Y28">
-        <v>173.5</v>
+        <v>206.3</v>
       </c>
       <c r="Z28">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA28">
-        <v>47.6</v>
+        <v>46.8</v>
       </c>
       <c r="AB28">
         <v>-0.2</v>
       </c>
       <c r="AC28">
-        <v>52751</v>
+        <v>40085</v>
       </c>
       <c r="AD28">
-        <v>425.4</v>
+        <v>323.3</v>
       </c>
       <c r="AE28">
-        <v>1356.2</v>
+        <v>559.3</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3679,28 +3688,28 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI28">
-        <v>306.8</v>
+        <v>370</v>
       </c>
       <c r="AJ28">
-        <v>13336</v>
+        <v>2486</v>
       </c>
       <c r="AK28">
         <v>124</v>
       </c>
       <c r="AL28">
-        <v>1034.3</v>
+        <v>598.3</v>
       </c>
       <c r="AM28">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN28">
-        <v>41.1</v>
+        <v>54</v>
       </c>
       <c r="AO28">
-        <v>0.3</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3709,13 +3718,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>3884</v>
+        <v>4815</v>
       </c>
       <c r="D29">
-        <v>971</v>
+        <v>1203.8</v>
       </c>
       <c r="E29">
-        <v>1940</v>
+        <v>2405.5</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3727,16 +3736,16 @@
         <v>1.5</v>
       </c>
       <c r="I29">
-        <v>972.5</v>
+        <v>1205.2</v>
       </c>
       <c r="J29">
-        <v>3881</v>
+        <v>4812</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29">
-        <v>1942</v>
+        <v>2407.5</v>
       </c>
       <c r="M29">
         <v>2</v>
@@ -3748,13 +3757,13 @@
         <v>-0.1</v>
       </c>
       <c r="P29">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q29">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R29">
-        <v>117.3</v>
+        <v>125.3</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3766,16 +3775,16 @@
         <v>0.5</v>
       </c>
       <c r="V29">
-        <v>59.5</v>
+        <v>63.5</v>
       </c>
       <c r="W29">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="X29">
         <v>4</v>
       </c>
       <c r="Y29">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Z29">
         <v>2</v>
@@ -3787,43 +3796,43 @@
         <v>-0.1</v>
       </c>
       <c r="AC29">
-        <v>2866</v>
+        <v>3739</v>
       </c>
       <c r="AD29">
-        <v>716.5</v>
+        <v>934.8</v>
       </c>
       <c r="AE29">
-        <v>1433</v>
+        <v>1680</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>144.5</v>
       </c>
       <c r="AI29">
-        <v>716.5</v>
+        <v>1041.8</v>
       </c>
       <c r="AJ29">
-        <v>2866</v>
+        <v>3450</v>
       </c>
       <c r="AK29">
         <v>4</v>
       </c>
       <c r="AL29">
-        <v>2866</v>
+        <v>1246.3</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN29">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AO29">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
